--- a/25NKUMCM-C/employment_predictions_2023.xlsx
+++ b/25NKUMCM-C/employment_predictions_2023.xlsx
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3587246987254056</v>
+        <v>0.3587248526304787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09107913101193392</v>
+        <v>0.0910791912850788</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3750339557499056</v>
+        <v>0.3750340866381618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07750344060061631</v>
+        <v>0.07750349620176614</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3901042562071058</v>
+        <v>0.390104375042819</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06746112484129764</v>
+        <v>0.06746117897264435</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4061398184870737</v>
+        <v>0.4061399336859242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06100145873991725</v>
+        <v>0.06100151316400193</v>
       </c>
     </row>
     <row r="6">
@@ -522,10 +522,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4253296887815936</v>
+        <v>0.4253298047926721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05758217834912167</v>
+        <v>0.05758223360117169</v>
       </c>
     </row>
     <row r="7">
@@ -536,10 +536,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4494905903886712</v>
+        <v>0.4494907072219845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0561958873077931</v>
+        <v>0.05619594349611659</v>
       </c>
     </row>
     <row r="8">
@@ -550,10 +550,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4797435659829228</v>
+        <v>0.479743679757263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0558303259869357</v>
+        <v>0.0558303832345343</v>
       </c>
     </row>
     <row r="9">
@@ -564,10 +564,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.516276630490796</v>
+        <v>0.5162767348626776</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05582253004437215</v>
+        <v>0.05582258831960767</v>
       </c>
     </row>
     <row r="10">
@@ -578,10 +578,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5582331222073516</v>
+        <v>0.5582332103592198</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05590631210075504</v>
+        <v>0.0559063709600946</v>
       </c>
     </row>
     <row r="11">
@@ -592,10 +592,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6037457391325687</v>
+        <v>0.603745805888789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05609477558305549</v>
+        <v>0.05609483427324238</v>
       </c>
     </row>
     <row r="12">
@@ -606,10 +606,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6501129957342695</v>
+        <v>0.6501130393583021</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05661321726599848</v>
+        <v>0.05661327516914434</v>
       </c>
     </row>
     <row r="13">
@@ -620,10 +620,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6940923370879579</v>
+        <v>0.6940923603937489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05802445714771211</v>
+        <v>0.05802451409559831</v>
       </c>
     </row>
     <row r="14">
@@ -634,10 +634,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7322664794676779</v>
+        <v>0.7322664900310026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06150803361534159</v>
+        <v>0.06150808950197829</v>
       </c>
     </row>
     <row r="15">
@@ -648,10 +648,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.76142971841333</v>
+        <v>0.7614297278574756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06893219590003818</v>
+        <v>0.06893224976705631</v>
       </c>
     </row>
     <row r="16">
@@ -662,10 +662,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7789403266320765</v>
+        <v>0.7789403491447345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08224680315933586</v>
+        <v>0.08224685311556479</v>
       </c>
     </row>
     <row r="17">
@@ -676,10 +676,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7829932990342999</v>
+        <v>0.7829933494103779</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1025315936706112</v>
+        <v>0.1025316381696731</v>
       </c>
     </row>
     <row r="18">
@@ -690,10 +690,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7727825297456457</v>
+        <v>0.7727826213196558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1296856937727216</v>
+        <v>0.1296857327890257</v>
       </c>
     </row>
     <row r="19">
@@ -704,10 +704,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7485399045457644</v>
+        <v>0.7485400473698993</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1627758091115973</v>
+        <v>0.1627758445481097</v>
       </c>
     </row>
     <row r="20">
@@ -718,10 +718,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7114572973405937</v>
+        <v>0.7114574968902607</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2004195879169194</v>
+        <v>0.2004196236808132</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6635129759376591</v>
+        <v>0.6635132325081645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2410076409837381</v>
+        <v>0.2410076829013446</v>
       </c>
     </row>
     <row r="22">
@@ -746,10 +746,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6072342756197895</v>
+        <v>0.6072345844443721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2828466204183029</v>
+        <v>0.2828466759077162</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5454326232436951</v>
+        <v>0.5454329752420874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3242856155386548</v>
+        <v>0.3242856930021172</v>
       </c>
     </row>
     <row r="24">
@@ -774,10 +774,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4809453361430756</v>
+        <v>0.4809457191222604</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3638354862128462</v>
+        <v>0.363835594210918</v>
       </c>
     </row>
     <row r="25">
@@ -788,10 +788,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4164122967491246</v>
+        <v>0.4164126968341289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4002701582655098</v>
+        <v>0.4002703046013535</v>
       </c>
     </row>
     <row r="26">
@@ -802,10 +802,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3541064130169974</v>
+        <v>0.3541068160902993</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4326970442977963</v>
+        <v>0.4326972351645126</v>
       </c>
     </row>
     <row r="27">
@@ -816,10 +816,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2958266599648338</v>
+        <v>0.2958270529292011</v>
       </c>
       <c r="D27" t="n">
-        <v>0.460588669052545</v>
+        <v>0.4605889083845755</v>
       </c>
     </row>
     <row r="28">
@@ -830,10 +830,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2428531708693761</v>
+        <v>0.2428535426077912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4837742124641318</v>
+        <v>0.4837745015930903</v>
       </c>
     </row>
     <row r="29">
@@ -844,10 +844,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1959565330192571</v>
+        <v>0.1959568749919599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5023959023139547</v>
+        <v>0.5023962399705441</v>
       </c>
     </row>
     <row r="30">
@@ -858,10 +858,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1554487729923528</v>
+        <v>0.1554490794723077</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5168399034067693</v>
+        <v>0.5168402860464921</v>
       </c>
     </row>
     <row r="31">
@@ -872,10 +872,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1212615544436093</v>
+        <v>0.1212618224388679</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5276539747641339</v>
+        <v>0.5276543971385182</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +927,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4857296398518214</v>
+        <v>0.4857296080333762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0739103908832069</v>
+        <v>0.07391039395474967</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5185155802818917</v>
+        <v>0.5185155632635401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06321372632646441</v>
+        <v>0.06321372810092332</v>
       </c>
     </row>
     <row r="4">
@@ -955,10 +955,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5457587528183359</v>
+        <v>0.5457587466587945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05496804790094382</v>
+        <v>0.05496804866166446</v>
       </c>
     </row>
     <row r="5">
@@ -969,10 +969,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5683471114211653</v>
+        <v>0.5683471117907715</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04901161764016693</v>
+        <v>0.04901161800746567</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5876353525243827</v>
+        <v>0.5876353553939193</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04503777461801668</v>
+        <v>0.04503777521919</v>
       </c>
     </row>
     <row r="7">
@@ -997,10 +997,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052941838481907</v>
+        <v>0.6052941860626095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04261724137153681</v>
+        <v>0.04261724249402031</v>
       </c>
     </row>
     <row r="8">
@@ -1011,10 +1011,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6231176756607182</v>
+        <v>0.6231176753031664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04131365020956292</v>
+        <v>0.04131365173174747</v>
       </c>
     </row>
     <row r="9">
@@ -1025,10 +1025,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6428094166785052</v>
+        <v>0.6428094131636497</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04079300233235077</v>
+        <v>0.04079300394320688</v>
       </c>
     </row>
     <row r="10">
@@ -1039,10 +1039,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6657715935470323</v>
+        <v>0.6657715874276837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04085243179068063</v>
+        <v>0.04085243325002742</v>
       </c>
     </row>
     <row r="11">
@@ -1053,10 +1053,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6929214838492843</v>
+        <v>0.6929214763679792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04140378084690365</v>
+        <v>0.04140378206531175</v>
       </c>
     </row>
     <row r="12">
@@ -1067,10 +1067,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7245570669252861</v>
+        <v>0.7245570593862913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04251365905892888</v>
+        <v>0.04251365999329335</v>
       </c>
     </row>
     <row r="13">
@@ -1081,10 +1081,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.760287843195528</v>
+        <v>0.7602878362640508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04456850683648315</v>
+        <v>0.04456850741277223</v>
       </c>
     </row>
     <row r="14">
@@ -1095,10 +1095,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7990392548538363</v>
+        <v>0.7990392479033728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04849515698753611</v>
+        <v>0.04849515730953236</v>
       </c>
     </row>
     <row r="15">
@@ -1109,10 +1109,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8391303643251041</v>
+        <v>0.8391303549481727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05575594140394423</v>
+        <v>0.05575594222522907</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8784158573500126</v>
+        <v>0.8784158411232342</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06785814286875705</v>
+        <v>0.06785814579517539</v>
       </c>
     </row>
     <row r="17">
@@ -1137,10 +1137,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9144761379450367</v>
+        <v>0.9144761085006926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08571698684855927</v>
+        <v>0.0857169938903886</v>
       </c>
     </row>
     <row r="18">
@@ -1151,10 +1151,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9448342014482397</v>
+        <v>0.9448341508576874</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109481510519179</v>
+        <v>0.1094815234290573</v>
       </c>
     </row>
     <row r="19">
@@ -1165,10 +1165,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9671756916775154</v>
+        <v>0.967175611104913</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1387484701982102</v>
+        <v>0.1387484900403595</v>
       </c>
     </row>
     <row r="20">
@@ -1179,10 +1179,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9795492331676674</v>
+        <v>0.9795491137128135</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1727803376280375</v>
+        <v>0.172780364569107</v>
       </c>
     </row>
     <row r="21">
@@ -1193,10 +1193,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9805275237109636</v>
+        <v>0.9805273573333222</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210622968673672</v>
+        <v>0.2106230018963748</v>
       </c>
     </row>
     <row r="22">
@@ -1207,10 +1207,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9693151640198591</v>
+        <v>0.9693149444260849</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2511755097756546</v>
+        <v>0.2511755474863578</v>
       </c>
     </row>
     <row r="23">
@@ -1221,10 +1221,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9457959370285882</v>
+        <v>0.9457956604132008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2932538672335182</v>
+        <v>0.2932539067638651</v>
       </c>
     </row>
     <row r="24">
@@ -1235,10 +1235,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9105192779031528</v>
+        <v>0.9105189434545774</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3356585359551434</v>
+        <v>0.3356585739525771</v>
       </c>
     </row>
     <row r="25">
@@ -1249,10 +1249,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8646320937254115</v>
+        <v>0.8646317038429396</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3772436967177143</v>
+        <v>0.3772437294070938</v>
       </c>
     </row>
     <row r="26">
@@ -1263,10 +1263,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8097671676804348</v>
+        <v>0.8097667278862436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4169809153642607</v>
+        <v>0.4169809388523635</v>
       </c>
     </row>
     <row r="27">
@@ -1277,10 +1277,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7479026423539641</v>
+        <v>0.7479021609219547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4540112018426709</v>
+        <v>0.4540112124317674</v>
       </c>
     </row>
     <row r="28">
@@ -1291,10 +1291,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6812083404289815</v>
+        <v>0.6812078277840755</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4876809828463668</v>
+        <v>0.487680977322497</v>
       </c>
     </row>
     <row r="29">
@@ -1305,10 +1305,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6118940509506543</v>
+        <v>0.6118935189141119</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5175597421789123</v>
+        <v>0.5175597180446474</v>
       </c>
     </row>
     <row r="30">
@@ -1319,10 +1319,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5420727179314501</v>
+        <v>0.5420721788981289</v>
       </c>
       <c r="D30" t="n">
-        <v>0.543439268989573</v>
+        <v>0.5434392246189611</v>
       </c>
     </row>
     <row r="31">
@@ -1333,10 +1333,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4736481994940286</v>
+        <v>0.4736476656261882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5653163829226944</v>
+        <v>0.5653163176265238</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1388,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04997179612342592</v>
+        <v>0.0499718162452347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1026755207801538</v>
+        <v>0.1026755211404773</v>
       </c>
     </row>
     <row r="3">
@@ -1402,10 +1402,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07219480185338403</v>
+        <v>0.07219483032878962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08774641268026104</v>
+        <v>0.08774640740759887</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1416,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08917085883041748</v>
+        <v>0.08917089528406635</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07709625152297528</v>
+        <v>0.07709624242661024</v>
       </c>
     </row>
     <row r="5">
@@ -1430,10 +1430,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09889733193995967</v>
+        <v>0.09889737478514413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07065656407384867</v>
+        <v>0.07065655312439778</v>
       </c>
     </row>
     <row r="6">
@@ -1444,10 +1444,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1010986078373641</v>
+        <v>0.1010986544754597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06748948422076248</v>
+        <v>0.06748947302075115</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09759482058656838</v>
+        <v>0.09759486778377324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06627778332798026</v>
+        <v>0.06627777270206503</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09222512450654335</v>
+        <v>0.09222516895448962</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06595635962076951</v>
+        <v>0.06595634970472893</v>
       </c>
     </row>
     <row r="9">
@@ -1486,10 +1486,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09028191575214528</v>
+        <v>0.09028195479490581</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06594553732772256</v>
+        <v>0.06594552790690454</v>
       </c>
     </row>
     <row r="10">
@@ -1500,10 +1500,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09753242370968807</v>
+        <v>0.09753245617309869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06602708333874752</v>
+        <v>0.06602707415548849</v>
       </c>
     </row>
     <row r="11">
@@ -1514,10 +1514,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1190161635204611</v>
+        <v>0.1190161905191477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06615415854713813</v>
+        <v>0.06615414947663532</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1578784820586062</v>
+        <v>0.1578785076031646</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06641517528008468</v>
+        <v>0.06641516634302211</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2145089438488744</v>
+        <v>0.2145089750563997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06726532998402311</v>
+        <v>0.06726532130571054</v>
       </c>
     </row>
     <row r="14">
@@ -1556,10 +1556,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2861929467425433</v>
+        <v>0.2861929934899601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06997878680078758</v>
+        <v>0.06997877891000512</v>
       </c>
     </row>
     <row r="15">
@@ -1570,10 +1570,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3673698859265761</v>
+        <v>0.3673699598824754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07687711250189154</v>
+        <v>0.07687710733008896</v>
       </c>
     </row>
     <row r="16">
@@ -1584,10 +1584,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4504515635597353</v>
+        <v>0.4504516766702139</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09052953168965874</v>
+        <v>0.09052953356433389</v>
       </c>
     </row>
     <row r="17">
@@ -1598,10 +1598,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5270275353150935</v>
+        <v>0.5270276979660018</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1121879541942566</v>
+        <v>0.1121879695171656</v>
       </c>
     </row>
     <row r="18">
@@ -1612,10 +1612,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5892026408311219</v>
+        <v>0.5892028600189956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1412004268942041</v>
+        <v>0.1412004629942928</v>
       </c>
     </row>
     <row r="19">
@@ -1626,10 +1626,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6307951613314702</v>
+        <v>0.6307954392106309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1756597360175143</v>
+        <v>0.1756598002179007</v>
       </c>
     </row>
     <row r="20">
@@ -1640,10 +1640,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6481721717479346</v>
+        <v>0.6481725048649916</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2131457059238818</v>
+        <v>0.2131458047845995</v>
       </c>
     </row>
     <row r="21">
@@ -1654,10 +1654,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.640594387799776</v>
+        <v>0.640594767190205</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2511755274846194</v>
+        <v>0.2511756660755766</v>
       </c>
     </row>
     <row r="22">
@@ -1668,10 +1668,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6100577147084526</v>
+        <v>0.6100581268483695</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2874991554938329</v>
+        <v>0.2874993367995667</v>
       </c>
     </row>
     <row r="23">
@@ -1682,10 +1682,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5607224646163012</v>
+        <v>0.5607228930447689</v>
       </c>
       <c r="D23" t="n">
-        <v>0.320320901215201</v>
+        <v>0.3203211258094096</v>
       </c>
     </row>
     <row r="24">
@@ -1696,10 +1696,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4980903592484264</v>
+        <v>0.4980907865476377</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3484421914250818</v>
+        <v>0.34844245748563</v>
       </c>
     </row>
     <row r="25">
@@ -1710,10 +1710,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4281128986487477</v>
+        <v>0.4281133084204747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3713066712303829</v>
+        <v>0.3713069748840835</v>
       </c>
     </row>
     <row r="26">
@@ -1724,10 +1724,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3563948323138295</v>
+        <v>0.3563952108257611</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3889466556705952</v>
+        <v>0.3889469915883288</v>
       </c>
     </row>
     <row r="27">
@@ -1738,10 +1738,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2876061171325341</v>
+        <v>0.2876064544096738</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4018518920991918</v>
+        <v>0.4018522542172188</v>
       </c>
     </row>
     <row r="28">
@@ -1752,10 +1752,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2251526605029707</v>
+        <v>0.2251529507738385</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4107964970168226</v>
+        <v>0.4107968792461575</v>
       </c>
     </row>
     <row r="29">
@@ -1766,10 +1766,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1710973224497252</v>
+        <v>0.1710975639884083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.416663969237842</v>
+        <v>0.4166643660416608</v>
       </c>
     </row>
     <row r="30">
@@ -1780,10 +1780,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1262800483891497</v>
+        <v>0.1262802428929001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4203035401480891</v>
+        <v>0.4203039469116795</v>
       </c>
     </row>
     <row r="31">
@@ -1794,10 +1794,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09056470550264802</v>
+        <v>0.09056485719538013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4224369512499909</v>
+        <v>0.42243736442563</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1849,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4125486714132931</v>
+        <v>0.4125486643223835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08012582124200467</v>
+        <v>0.08012591141689403</v>
       </c>
     </row>
     <row r="3">
@@ -1863,10 +1863,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425752885044334</v>
+        <v>0.4257529376177791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06943586665118358</v>
+        <v>0.06943593620030278</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1877,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4387338294240202</v>
+        <v>0.4387339130057328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06133240404839713</v>
+        <v>0.06133246086541567</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4524946903012594</v>
+        <v>0.4524947801582702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05558364337893875</v>
+        <v>0.05558369595822942</v>
       </c>
     </row>
     <row r="6">
@@ -1905,10 +1905,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4680445582287609</v>
+        <v>0.4680446350871472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05183530179563672</v>
+        <v>0.05183535692018621</v>
       </c>
     </row>
     <row r="7">
@@ -1919,10 +1919,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.486313630772699</v>
+        <v>0.4863136816085913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04964965226351744</v>
+        <v>0.0496497132844162</v>
       </c>
     </row>
     <row r="8">
@@ -1933,10 +1933,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5080697317587128</v>
+        <v>0.508069749768213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04858135855133092</v>
+        <v>0.04858142528801858</v>
       </c>
     </row>
     <row r="9">
@@ -1947,10 +1947,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5338430877012896</v>
+        <v>0.5338430714665154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04825198440477284</v>
+        <v>0.048252054404701</v>
       </c>
     </row>
     <row r="10">
@@ -1961,10 +1961,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5638658470111297</v>
+        <v>0.5638657989711788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04840267199144375</v>
+        <v>0.04840274209896794</v>
       </c>
     </row>
     <row r="11">
@@ -1975,10 +1975,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5980317586956421</v>
+        <v>0.5980316831117909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04894045142889038</v>
+        <v>0.04894051889953555</v>
       </c>
     </row>
     <row r="12">
@@ -1989,10 +1989,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6358798350768082</v>
+        <v>0.6358797357400099</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05000551673408424</v>
+        <v>0.05000557986258373</v>
       </c>
     </row>
     <row r="13">
@@ -2003,10 +2003,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6766038551732931</v>
+        <v>0.6766037331323803</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05206036007539112</v>
+        <v>0.05206041884436364</v>
       </c>
     </row>
     <row r="14">
@@ -2017,10 +2017,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7190874102479141</v>
+        <v>0.7190872618352235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05593720694514369</v>
+        <v>0.05593726416837057</v>
       </c>
     </row>
     <row r="15">
@@ -2031,10 +2031,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7619620590671444</v>
+        <v>0.7619618744647989</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06271915107286517</v>
+        <v>0.06271921362833319</v>
       </c>
     </row>
     <row r="16">
@@ -2045,10 +2045,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8036842530536652</v>
+        <v>0.8036840155829105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07341594911775015</v>
+        <v>0.07341602788588049</v>
       </c>
     </row>
     <row r="17">
@@ -2059,10 +2059,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8426251905240274</v>
+        <v>0.8426248767590774</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08864591382669407</v>
+        <v>0.08864602180105828</v>
       </c>
     </row>
     <row r="18">
@@ -2073,10 +2073,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8771667995472973</v>
+        <v>0.8771663802639954</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1085619048999397</v>
+        <v>0.1085620547702409</v>
       </c>
     </row>
     <row r="19">
@@ -2087,10 +2087,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9057967071784013</v>
+        <v>0.9057961490572347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1329690069235888</v>
+        <v>0.1329692093102949</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9271953406039283</v>
+        <v>0.9271946085269333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1614556220191998</v>
+        <v>0.1614558843831221</v>
       </c>
     </row>
     <row r="21">
@@ -2115,10 +2115,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9403091711730591</v>
+        <v>0.94030823089361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1934693093129004</v>
+        <v>0.1934696352300259</v>
       </c>
     </row>
     <row r="22">
@@ -2129,10 +2129,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9444054483091012</v>
+        <v>0.9444042692384014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2283548318182502</v>
+        <v>0.2283552205034728</v>
       </c>
     </row>
     <row r="23">
@@ -2143,10 +2143,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.939105428980492</v>
+        <v>0.9391039868276861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2653805805939385</v>
+        <v>0.2653810267018138</v>
       </c>
     </row>
     <row r="24">
@@ -2157,10 +2157,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9243949190388291</v>
+        <v>0.9243931980622584</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3037659234569925</v>
+        <v>0.303766417208359</v>
       </c>
     </row>
     <row r="25">
@@ -2171,10 +2171,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9006127312564345</v>
+        <v>0.9006107259280175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.342712219090877</v>
+        <v>0.3427127467406696</v>
       </c>
     </row>
     <row r="26">
@@ -2185,10 +2185,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8684192723659935</v>
+        <v>0.8684169883128896</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3814360293317987</v>
+        <v>0.3814365739497986</v>
       </c>
     </row>
     <row r="27">
@@ -2199,10 +2199,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8287487692569453</v>
+        <v>0.8287462234165568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4192018138204741</v>
+        <v>0.4192023563193656</v>
       </c>
     </row>
     <row r="28">
@@ -2213,10 +2213,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7827495451691323</v>
+        <v>0.7827467651672932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4553513886125751</v>
+        <v>0.4553519089316103</v>
       </c>
     </row>
     <row r="29">
@@ -2227,10 +2227,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7317172188369523</v>
+        <v>0.7317142416666516</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4893279223074038</v>
+        <v>0.4893284006465016</v>
       </c>
     </row>
     <row r="30">
@@ -2241,10 +2241,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6770257273866811</v>
+        <v>0.6770225975200332</v>
       </c>
       <c r="D30" t="n">
-        <v>0.520692926201288</v>
+        <v>0.5206933441993007</v>
       </c>
     </row>
     <row r="31">
@@ -2255,10 +2255,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6200607120519354</v>
+        <v>0.6200574791562425</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5491354333462306</v>
+        <v>0.5491357751071416</v>
       </c>
     </row>
   </sheetData>

--- a/25NKUMCM-C/employment_predictions_2023.xlsx
+++ b/25NKUMCM-C/employment_predictions_2023.xlsx
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3587248526304787</v>
+        <v>0.3587252215166372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0910791912850788</v>
+        <v>0.09107925596501877</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3750340866381618</v>
+        <v>0.3750343187068119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07750349620176614</v>
+        <v>0.07750356261757789</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.390104375042819</v>
+        <v>0.3901045342646956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06746117897264435</v>
+        <v>0.0674612494715381</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4061399336859242</v>
+        <v>0.4061400738718746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06100151316400193</v>
+        <v>0.06100158602149308</v>
       </c>
     </row>
     <row r="6">
@@ -522,10 +522,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4253298047926721</v>
+        <v>0.4253299621079236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05758223360117169</v>
+        <v>0.05758230588118182</v>
       </c>
     </row>
     <row r="7">
@@ -536,10 +536,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4494907072219845</v>
+        <v>0.4494908969287792</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05619594349611659</v>
+        <v>0.05619601413520087</v>
       </c>
     </row>
     <row r="8">
@@ -550,10 +550,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.479743679757263</v>
+        <v>0.4797438976277371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0558303832345343</v>
+        <v>0.05583045334695842</v>
       </c>
     </row>
     <row r="9">
@@ -564,10 +564,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5162767348626776</v>
+        <v>0.5162769627295143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05582258831960767</v>
+        <v>0.05582265938169139</v>
       </c>
     </row>
     <row r="10">
@@ -578,10 +578,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5582332103592198</v>
+        <v>0.5582334244333238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0559063709600946</v>
+        <v>0.05590644333757738</v>
       </c>
     </row>
     <row r="11">
@@ -592,10 +592,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603745805888789</v>
+        <v>0.6037459859526073</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05609483427324238</v>
+        <v>0.05609490739868124</v>
       </c>
     </row>
     <row r="12">
@@ -606,10 +606,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6501130393583021</v>
+        <v>0.6501131768444666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05661327516914434</v>
+        <v>0.05661334893388775</v>
       </c>
     </row>
     <row r="13">
@@ -620,10 +620,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6940923603937489</v>
+        <v>0.6940924636849386</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05802451409559831</v>
+        <v>0.05802458955725279</v>
       </c>
     </row>
     <row r="14">
@@ -634,10 +634,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7322664900310026</v>
+        <v>0.7322665859742674</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06150808950197829</v>
+        <v>0.06150816668948084</v>
       </c>
     </row>
     <row r="15">
@@ -648,10 +648,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7614297278574756</v>
+        <v>0.761429859311767</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06893224976705631</v>
+        <v>0.06893232308946451</v>
       </c>
     </row>
     <row r="16">
@@ -662,10 +662,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7789403491447345</v>
+        <v>0.7789405691848387</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08224685311556479</v>
+        <v>0.082246910143576</v>
       </c>
     </row>
     <row r="17">
@@ -676,10 +676,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7829933494103779</v>
+        <v>0.7829937134249619</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1025316381696731</v>
+        <v>0.1025316654708307</v>
       </c>
     </row>
     <row r="18">
@@ -690,10 +690,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7727826213196558</v>
+        <v>0.7727831785548599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1296857327890257</v>
+        <v>0.1296857230235319</v>
       </c>
     </row>
     <row r="19">
@@ -704,10 +704,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7485400473698993</v>
+        <v>0.7485408334483133</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1627758445481097</v>
+        <v>0.1627758000694528</v>
       </c>
     </row>
     <row r="20">
@@ -718,10 +718,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7114574968902607</v>
+        <v>0.7114585285211161</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2004196236808132</v>
+        <v>0.2004195575571924</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6635132325081645</v>
+        <v>0.6635145050964877</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2410076829013446</v>
+        <v>0.2410076185315206</v>
       </c>
     </row>
     <row r="22">
@@ -746,10 +746,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6072345844443721</v>
+        <v>0.6072360727316195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2828466759077162</v>
+        <v>0.2828466453477006</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5454329752420874</v>
+        <v>0.5454346365891978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3242856930021172</v>
+        <v>0.3242857340139481</v>
       </c>
     </row>
     <row r="24">
@@ -774,10 +774,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4809457191222604</v>
+        <v>0.4809474986696746</v>
       </c>
       <c r="D24" t="n">
-        <v>0.363835594210918</v>
+        <v>0.3638357463376599</v>
       </c>
     </row>
     <row r="25">
@@ -788,10 +788,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4164126968341289</v>
+        <v>0.4164145335882823</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4002703046013535</v>
+        <v>0.4002706048330222</v>
       </c>
     </row>
     <row r="26">
@@ -802,10 +802,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3541068160902993</v>
+        <v>0.3541086489925226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4326972351645126</v>
+        <v>0.4326977138747653</v>
       </c>
     </row>
     <row r="27">
@@ -816,10 +816,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2958270529292011</v>
+        <v>0.2958288261238527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4605889083845755</v>
+        <v>0.46058958617685</v>
       </c>
     </row>
     <row r="28">
@@ -830,10 +830,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2428535426077912</v>
+        <v>0.2428552093825008</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4837745015930903</v>
+        <v>0.4837753875215624</v>
       </c>
     </row>
     <row r="29">
@@ -844,10 +844,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1959568749919599</v>
+        <v>0.195958400149842</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5023962399705441</v>
+        <v>0.5023973313410273</v>
       </c>
     </row>
     <row r="30">
@@ -858,10 +858,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1554490794723077</v>
+        <v>0.1554504401584014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5168402860464921</v>
+        <v>0.5168415697132054</v>
       </c>
     </row>
     <row r="31">
@@ -872,10 +872,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1212618224388679</v>
+        <v>0.1212630076430859</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5276543971385182</v>
+        <v>0.5276558519553737</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +927,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4857296080333762</v>
+        <v>0.4857296398518214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07391039395474967</v>
+        <v>0.0739103908832069</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5185155632635401</v>
+        <v>0.5185155802818917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06321372810092332</v>
+        <v>0.06321372632646441</v>
       </c>
     </row>
     <row r="4">
@@ -955,10 +955,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5457587466587945</v>
+        <v>0.5457587528183359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05496804866166446</v>
+        <v>0.05496804790094382</v>
       </c>
     </row>
     <row r="5">
@@ -969,10 +969,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5683471117907715</v>
+        <v>0.5683471114211653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04901161800746567</v>
+        <v>0.04901161764016693</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5876353553939193</v>
+        <v>0.5876353525243827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04503777521919</v>
+        <v>0.04503777461801668</v>
       </c>
     </row>
     <row r="7">
@@ -997,10 +997,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052941860626095</v>
+        <v>0.6052941838481907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04261724249402031</v>
+        <v>0.04261724137153681</v>
       </c>
     </row>
     <row r="8">
@@ -1011,10 +1011,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6231176753031664</v>
+        <v>0.6231176756607182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04131365173174747</v>
+        <v>0.04131365020956292</v>
       </c>
     </row>
     <row r="9">
@@ -1025,10 +1025,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6428094131636497</v>
+        <v>0.6428094166785052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04079300394320688</v>
+        <v>0.04079300233235077</v>
       </c>
     </row>
     <row r="10">
@@ -1039,10 +1039,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6657715874276837</v>
+        <v>0.6657715935470323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04085243325002742</v>
+        <v>0.04085243179068063</v>
       </c>
     </row>
     <row r="11">
@@ -1053,10 +1053,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6929214763679792</v>
+        <v>0.6929214838492843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04140378206531175</v>
+        <v>0.04140378084690365</v>
       </c>
     </row>
     <row r="12">
@@ -1067,10 +1067,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7245570593862913</v>
+        <v>0.7245570669252861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04251365999329335</v>
+        <v>0.04251365905892888</v>
       </c>
     </row>
     <row r="13">
@@ -1081,10 +1081,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7602878362640508</v>
+        <v>0.760287843195528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04456850741277223</v>
+        <v>0.04456850683648315</v>
       </c>
     </row>
     <row r="14">
@@ -1095,10 +1095,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7990392479033728</v>
+        <v>0.7990392548538363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04849515730953236</v>
+        <v>0.04849515698753611</v>
       </c>
     </row>
     <row r="15">
@@ -1109,10 +1109,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8391303549481727</v>
+        <v>0.8391303643251041</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05575594222522907</v>
+        <v>0.05575594140394423</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8784158411232342</v>
+        <v>0.8784158573500126</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06785814579517539</v>
+        <v>0.06785814286875705</v>
       </c>
     </row>
     <row r="17">
@@ -1137,10 +1137,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9144761085006926</v>
+        <v>0.9144761379450367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0857169938903886</v>
+        <v>0.08571698684855927</v>
       </c>
     </row>
     <row r="18">
@@ -1151,10 +1151,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9448341508576874</v>
+        <v>0.9448342014482397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1094815234290573</v>
+        <v>0.109481510519179</v>
       </c>
     </row>
     <row r="19">
@@ -1165,10 +1165,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.967175611104913</v>
+        <v>0.9671756916775154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1387484900403595</v>
+        <v>0.1387484701982102</v>
       </c>
     </row>
     <row r="20">
@@ -1179,10 +1179,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9795491137128135</v>
+        <v>0.9795492331676674</v>
       </c>
       <c r="D20" t="n">
-        <v>0.172780364569107</v>
+        <v>0.1727803376280375</v>
       </c>
     </row>
     <row r="21">
@@ -1193,10 +1193,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9805273573333222</v>
+        <v>0.9805275237109636</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2106230018963748</v>
+        <v>0.210622968673672</v>
       </c>
     </row>
     <row r="22">
@@ -1207,10 +1207,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9693149444260849</v>
+        <v>0.9693151640198591</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2511755474863578</v>
+        <v>0.2511755097756546</v>
       </c>
     </row>
     <row r="23">
@@ -1221,10 +1221,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9457956604132008</v>
+        <v>0.9457959370285882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2932539067638651</v>
+        <v>0.2932538672335182</v>
       </c>
     </row>
     <row r="24">
@@ -1235,10 +1235,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9105189434545774</v>
+        <v>0.9105192779031528</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3356585739525771</v>
+        <v>0.3356585359551434</v>
       </c>
     </row>
     <row r="25">
@@ -1249,10 +1249,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8646317038429396</v>
+        <v>0.8646320937254115</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3772437294070938</v>
+        <v>0.3772436967177143</v>
       </c>
     </row>
     <row r="26">
@@ -1263,10 +1263,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8097667278862436</v>
+        <v>0.8097671676804348</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4169809388523635</v>
+        <v>0.4169809153642607</v>
       </c>
     </row>
     <row r="27">
@@ -1277,10 +1277,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7479021609219547</v>
+        <v>0.7479026423539641</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4540112124317674</v>
+        <v>0.4540112018426709</v>
       </c>
     </row>
     <row r="28">
@@ -1291,10 +1291,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6812078277840755</v>
+        <v>0.6812083404289815</v>
       </c>
       <c r="D28" t="n">
-        <v>0.487680977322497</v>
+        <v>0.4876809828463668</v>
       </c>
     </row>
     <row r="29">
@@ -1305,10 +1305,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6118935189141119</v>
+        <v>0.6118940509506543</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5175597180446474</v>
+        <v>0.5175597421789123</v>
       </c>
     </row>
     <row r="30">
@@ -1319,10 +1319,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5420721788981289</v>
+        <v>0.5420727179314501</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5434392246189611</v>
+        <v>0.543439268989573</v>
       </c>
     </row>
     <row r="31">
@@ -1333,10 +1333,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4736476656261882</v>
+        <v>0.4736481994940286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5653163176265238</v>
+        <v>0.5653163829226944</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1388,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0499718162452347</v>
+        <v>0.04997167757627874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1026755211404773</v>
+        <v>0.1026755879302692</v>
       </c>
     </row>
     <row r="3">
@@ -1402,10 +1402,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07219483032878962</v>
+        <v>0.07219468426188549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08774640740759887</v>
+        <v>0.0877464690781866</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1416,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08917089528406635</v>
+        <v>0.08917074131602012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07709624242661024</v>
+        <v>0.07709630170952352</v>
       </c>
     </row>
     <row r="5">
@@ -1430,10 +1430,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09889737478514413</v>
+        <v>0.09889721476221958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07065655312439778</v>
+        <v>0.07065661088452621</v>
       </c>
     </row>
     <row r="6">
@@ -1444,10 +1444,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1010986544754597</v>
+        <v>0.1010984920821564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06748947302075115</v>
+        <v>0.06748952895943187</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09759486778377324</v>
+        <v>0.09759470733638226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06627777270206503</v>
+        <v>0.06627782653012089</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09222516895448962</v>
+        <v>0.092225013876929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06595634970472893</v>
+        <v>0.06595640168131368</v>
       </c>
     </row>
     <row r="9">
@@ -1486,10 +1486,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09028195479490581</v>
+        <v>0.09028180630988053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06594552790690454</v>
+        <v>0.06594557870193098</v>
       </c>
     </row>
     <row r="10">
@@ -1500,10 +1500,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09753245617309869</v>
+        <v>0.09753231272536078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06602707415548849</v>
+        <v>0.06602712446210421</v>
       </c>
     </row>
     <row r="11">
@@ -1514,10 +1514,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1190161905191477</v>
+        <v>0.1190160482475856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06615414947663532</v>
+        <v>0.06615419967986322</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1578785076031646</v>
+        <v>0.1578783618476968</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06641516634302211</v>
+        <v>0.06641521643691418</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2145089750563997</v>
+        <v>0.2145088225293311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06726532130571054</v>
+        <v>0.06726537106718064</v>
       </c>
     </row>
     <row r="14">
@@ -1556,10 +1556,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2861929934899601</v>
+        <v>0.28619283448016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06997877891000512</v>
+        <v>0.06997882809594161</v>
       </c>
     </row>
     <row r="15">
@@ -1570,10 +1570,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3673699598824754</v>
+        <v>0.3673697997896695</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07687710733008896</v>
+        <v>0.07687715578385799</v>
       </c>
     </row>
     <row r="16">
@@ -1584,10 +1584,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4504516766702139</v>
+        <v>0.4504515263174846</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09052953356433389</v>
+        <v>0.09052958162553117</v>
       </c>
     </row>
     <row r="17">
@@ -1598,10 +1598,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5270276979660018</v>
+        <v>0.5270275724693629</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1121879695171656</v>
+        <v>0.1121880186589175</v>
       </c>
     </row>
     <row r="18">
@@ -1612,10 +1612,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5892028600189956</v>
+        <v>0.5892027763999412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1412004629942928</v>
+        <v>0.141200515860878</v>
       </c>
     </row>
     <row r="19">
@@ -1626,10 +1626,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6307954392106309</v>
+        <v>0.6307954132930391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1756598002179007</v>
+        <v>0.1756598602402656</v>
       </c>
     </row>
     <row r="20">
@@ -1640,10 +1640,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6481725048649916</v>
+        <v>0.6481725481941041</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2131458047845995</v>
+        <v>0.2131458758605413</v>
       </c>
     </row>
     <row r="21">
@@ -1654,10 +1654,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.640594767190205</v>
+        <v>0.6405948846954577</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2511756660755766</v>
+        <v>0.2511757522506351</v>
       </c>
     </row>
     <row r="22">
@@ -1668,10 +1668,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6100581268483695</v>
+        <v>0.6100583157607357</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2874993367995667</v>
+        <v>0.2874994418248054</v>
       </c>
     </row>
     <row r="23">
@@ -1682,10 +1682,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5607228930447689</v>
+        <v>0.560723143247828</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3203211258094096</v>
+        <v>0.320321252622322</v>
       </c>
     </row>
     <row r="24">
@@ -1696,10 +1696,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4980907865476377</v>
+        <v>0.4980910821939599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.34844245748563</v>
+        <v>0.3484426077523718</v>
       </c>
     </row>
     <row r="25">
@@ -1710,10 +1710,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4281133084204747</v>
+        <v>0.428113630377474</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3713069748840835</v>
+        <v>0.371307148738048</v>
       </c>
     </row>
     <row r="26">
@@ -1724,10 +1724,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3563952108257611</v>
+        <v>0.3563955393887431</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3889469915883288</v>
+        <v>0.3889471876407028</v>
       </c>
     </row>
     <row r="27">
@@ -1738,10 +1738,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2876064544096738</v>
+        <v>0.2876067717453869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4018522542172188</v>
+        <v>0.4018524698341212</v>
       </c>
     </row>
     <row r="28">
@@ -1752,10 +1752,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2251529507738385</v>
+        <v>0.2251532427031364</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4107968792461575</v>
+        <v>0.4107971110131948</v>
       </c>
     </row>
     <row r="29">
@@ -1766,10 +1766,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1710975639884083</v>
+        <v>0.1710978209223566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4166643660416608</v>
+        <v>0.4166646102927923</v>
       </c>
     </row>
     <row r="30">
@@ -1780,10 +1780,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1262802428929001</v>
+        <v>0.1262804599401506</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4203039469116795</v>
+        <v>0.4203042001972325</v>
       </c>
     </row>
     <row r="31">
@@ -1794,10 +1794,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09056485719538013</v>
+        <v>0.09056503361177864</v>
       </c>
       <c r="D31" t="n">
-        <v>0.42243736442563</v>
+        <v>0.4224376238313496</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1849,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4125486643223835</v>
+        <v>0.4125486519695616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08012591141689403</v>
+        <v>0.0801258159136128</v>
       </c>
     </row>
     <row r="3">
@@ -1863,10 +1863,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4257529376177791</v>
+        <v>0.4257528752988917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06943593620030278</v>
+        <v>0.06943585998860355</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1877,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4387339130057328</v>
+        <v>0.4387338256056705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06133246086541567</v>
+        <v>0.06133239632744029</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4524947801582702</v>
+        <v>0.4524946893118886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05558369595822942</v>
+        <v>0.05558363496126877</v>
       </c>
     </row>
     <row r="6">
@@ -1905,10 +1905,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4680446350871472</v>
+        <v>0.4680445578585943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05183535692018621</v>
+        <v>0.05183529301687991</v>
       </c>
     </row>
     <row r="7">
@@ -1919,10 +1919,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4863136816085913</v>
+        <v>0.48631362979744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0496497132844162</v>
+        <v>0.04964964333390627</v>
       </c>
     </row>
     <row r="8">
@@ -1933,10 +1933,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.508069749768213</v>
+        <v>0.5080697299075965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04858142528801858</v>
+        <v>0.04858134954259524</v>
       </c>
     </row>
     <row r="9">
@@ -1947,10 +1947,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5338430714665154</v>
+        <v>0.5338430855002179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.048252054404701</v>
+        <v>0.04825197530882941</v>
       </c>
     </row>
     <row r="10">
@@ -1961,10 +1961,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5638657989711788</v>
+        <v>0.5638658455187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04840274209896794</v>
+        <v>0.04840266277864701</v>
       </c>
     </row>
     <row r="11">
@@ -1975,10 +1975,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5980316831117909</v>
+        <v>0.5980317591626585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04894051889953555</v>
+        <v>0.04894044206399228</v>
       </c>
     </row>
     <row r="12">
@@ -1989,10 +1989,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6358797357400099</v>
+        <v>0.6358798385685679</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05000557986258373</v>
+        <v>0.05000550718345043</v>
       </c>
     </row>
     <row r="13">
@@ -2003,10 +2003,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6766037331323803</v>
+        <v>0.6766038621987565</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05206041884436364</v>
+        <v>0.05206035039348391</v>
       </c>
     </row>
     <row r="14">
@@ -2017,10 +2017,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7190872618352235</v>
+        <v>0.7190874204391733</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05593726416837057</v>
+        <v>0.05593719749705129</v>
       </c>
     </row>
     <row r="15">
@@ -2031,10 +2031,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7619618744647989</v>
+        <v>0.761962070947492</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06271921362833319</v>
+        <v>0.0627191427814756</v>
       </c>
     </row>
     <row r="16">
@@ -2045,10 +2045,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8036840155829105</v>
+        <v>0.8036842639226652</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07341602788588049</v>
+        <v>0.07341594347758101</v>
       </c>
     </row>
     <row r="17">
@@ -2059,10 +2059,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8426248767590774</v>
+        <v>0.842625196475759</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08864602180105828</v>
+        <v>0.08864591262523083</v>
       </c>
     </row>
     <row r="18">
@@ -2073,10 +2073,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8771663802639954</v>
+        <v>0.8771667956229932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1085620547702409</v>
+        <v>0.1085619098847351</v>
       </c>
     </row>
     <row r="19">
@@ -2087,10 +2087,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9057961490572347</v>
+        <v>0.9057966876410632</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1329692093102949</v>
+        <v>0.132969019575925</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9271946085269333</v>
+        <v>0.9271952993095977</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1614558843831221</v>
+        <v>0.1614556434078256</v>
       </c>
     </row>
     <row r="21">
@@ -2115,10 +2115,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.94030823089361</v>
+        <v>0.9403091020040087</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1934696352300259</v>
+        <v>0.1934693399804146</v>
       </c>
     </row>
     <row r="22">
@@ -2129,10 +2129,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9444042692384014</v>
+        <v>0.9444053456284404</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2283552205034728</v>
+        <v>0.2283548716948176</v>
       </c>
     </row>
     <row r="23">
@@ -2143,10 +2143,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9391039868276861</v>
+        <v>0.9391052880667732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2653810267018138</v>
+        <v>0.2653806289514102</v>
       </c>
     </row>
     <row r="24">
@@ -2157,10 +2157,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9243931980622584</v>
+        <v>0.924394736461945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.303766417208359</v>
+        <v>0.3037659789144085</v>
       </c>
     </row>
     <row r="25">
@@ -2171,10 +2171,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9006107259280175</v>
+        <v>0.9006125051632112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3427127467406696</v>
+        <v>0.3427122796743933</v>
       </c>
     </row>
     <row r="26">
@@ -2185,10 +2185,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8684169883128896</v>
+        <v>0.8684190026532794</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3814365739497986</v>
+        <v>0.3814360925844995</v>
       </c>
     </row>
     <row r="27">
@@ -2199,10 +2199,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8287462234165568</v>
+        <v>0.8287484576212462</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4192023563193656</v>
+        <v>0.4192018769516848</v>
       </c>
     </row>
     <row r="28">
@@ -2213,10 +2213,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7827467651672932</v>
+        <v>0.782749195033369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4553519089316103</v>
+        <v>0.4553514486724163</v>
       </c>
     </row>
     <row r="29">
@@ -2227,10 +2227,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7317142416666516</v>
+        <v>0.7317168351653986</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4893284006465016</v>
+        <v>0.4893279763704089</v>
       </c>
     </row>
     <row r="30">
@@ -2241,10 +2241,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6770225975200332</v>
+        <v>0.6770253164080281</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5206933441993007</v>
+        <v>0.5206929715428201</v>
       </c>
     </row>
     <row r="31">
@@ -2255,10 +2255,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6200574791562425</v>
+        <v>0.6200602809164613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5491357751071416</v>
+        <v>0.5491354675970078</v>
       </c>
     </row>
   </sheetData>

--- a/25NKUMCM-C/employment_predictions_2023.xlsx
+++ b/25NKUMCM-C/employment_predictions_2023.xlsx
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3587252215166372</v>
+        <v>0.3587246690730419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09107925596501877</v>
+        <v>0.09107914357678779</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3750343187068119</v>
+        <v>0.3750339527321533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07750356261757789</v>
+        <v>0.07750345159118477</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3901045342646956</v>
+        <v>0.3901042684297167</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0674612494715381</v>
+        <v>0.067461134957002</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4061400738718746</v>
+        <v>0.4061398356606962</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06100158602149308</v>
+        <v>0.06100146897750355</v>
       </c>
     </row>
     <row r="6">
@@ -522,10 +522,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4253299621079236</v>
+        <v>0.4253297030626944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05758230588118182</v>
+        <v>0.05758218942478723</v>
       </c>
     </row>
     <row r="7">
@@ -536,10 +536,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4494908969287792</v>
+        <v>0.4494905970981042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05619601413520087</v>
+        <v>0.05619589935809797</v>
       </c>
     </row>
     <row r="8">
@@ -550,10 +550,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4797438976277371</v>
+        <v>0.4797435636068803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05583045334695842</v>
+        <v>0.0558303387276017</v>
       </c>
     </row>
     <row r="9">
@@ -564,10 +564,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5162769627295143</v>
+        <v>0.5162766200200488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05582265938169139</v>
+        <v>0.05582254308485263</v>
       </c>
     </row>
     <row r="10">
@@ -578,10 +578,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5582334244333238</v>
+        <v>0.558233106004284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05590644333757738</v>
+        <v>0.05590632511913605</v>
       </c>
     </row>
     <row r="11">
@@ -592,10 +592,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6037459859526073</v>
+        <v>0.6037457196032094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05609490739868124</v>
+        <v>0.05609478830405353</v>
       </c>
     </row>
     <row r="12">
@@ -606,10 +606,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6501131768444666</v>
+        <v>0.6501129741064342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05661334893388775</v>
+        <v>0.05661322934799511</v>
       </c>
     </row>
     <row r="13">
@@ -620,10 +620,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6940924636849386</v>
+        <v>0.6940923125550579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05802458955725279</v>
+        <v>0.05802446817274547</v>
       </c>
     </row>
     <row r="14">
@@ -634,10 +634,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7322665859742674</v>
+        <v>0.7322664488639312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06150816668948084</v>
+        <v>0.06150804336723541</v>
       </c>
     </row>
     <row r="15">
@@ -648,10 +648,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.761429859311767</v>
+        <v>0.7614296764638118</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06893232308946451</v>
+        <v>0.06893220485364228</v>
       </c>
     </row>
     <row r="16">
@@ -662,10 +662,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7789405691848387</v>
+        <v>0.7789402666996944</v>
       </c>
       <c r="D16" t="n">
-        <v>0.082246910143576</v>
+        <v>0.08224681256218903</v>
       </c>
     </row>
     <row r="17">
@@ -676,10 +676,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7829937134249619</v>
+        <v>0.7829932141907884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1025316654708307</v>
+        <v>0.1025316047378294</v>
       </c>
     </row>
     <row r="18">
@@ -690,10 +690,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7727831785548599</v>
+        <v>0.7727824139428265</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1296857230235319</v>
+        <v>0.1296857066305886</v>
       </c>
     </row>
     <row r="19">
@@ -704,10 +704,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7485408334483133</v>
+        <v>0.7485397536628042</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1627758000694528</v>
+        <v>0.1627758222126786</v>
       </c>
     </row>
     <row r="20">
@@ -718,10 +718,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7114585285211161</v>
+        <v>0.7114571099263398</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2004195575571924</v>
+        <v>0.2004195979259734</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6635145050964877</v>
+        <v>0.6635127535408522</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2410076185315206</v>
+        <v>0.2410076429582517</v>
       </c>
     </row>
     <row r="22">
@@ -746,10 +746,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6072360727316195</v>
+        <v>0.6072340226842603</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2828466453477006</v>
+        <v>0.2828466082110681</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5454346365891978</v>
+        <v>0.5454323466228956</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3242857340139481</v>
+        <v>0.3242855823818041</v>
       </c>
     </row>
     <row r="24">
@@ -774,10 +774,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4809474986696746</v>
+        <v>0.4809450443445057</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3638357463376599</v>
+        <v>0.3638354254170973</v>
       </c>
     </row>
     <row r="25">
@@ -788,10 +788,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4164145335882823</v>
+        <v>0.4164119990469635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4002706048330222</v>
+        <v>0.4002700639391321</v>
       </c>
     </row>
     <row r="26">
@@ -802,10 +802,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3541086489925226</v>
+        <v>0.3541061185708995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4326977138747653</v>
+        <v>0.4326969119788072</v>
       </c>
     </row>
     <row r="27">
@@ -816,10 +816,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2958288261238527</v>
+        <v>0.2958263770592968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46058958617685</v>
+        <v>0.4605884961592548</v>
       </c>
     </row>
     <row r="28">
@@ -830,10 +830,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2428552093825008</v>
+        <v>0.2428529063504371</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4837753875215624</v>
+        <v>0.4837739985002545</v>
       </c>
     </row>
     <row r="29">
@@ -844,10 +844,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.195958400149842</v>
+        <v>0.1959562919629985</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5023973313410273</v>
+        <v>0.5023956488078575</v>
       </c>
     </row>
     <row r="30">
@@ -858,10 +858,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1554504401584014</v>
+        <v>0.1554485586010393</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5168415697132054</v>
+        <v>0.5168396136107039</v>
       </c>
     </row>
     <row r="31">
@@ -872,10 +872,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1212630076430859</v>
+        <v>0.1212613681358693</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5276558519553737</v>
+        <v>0.5276536531788693</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1849,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4125486519695616</v>
+        <v>0.4125485753458187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0801258159136128</v>
+        <v>0.08012578120747868</v>
       </c>
     </row>
     <row r="3">
@@ -1863,10 +1863,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4257528752988917</v>
+        <v>0.4257527853699608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06943585998860355</v>
+        <v>0.06943583823395867</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1877,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4387338256056705</v>
+        <v>0.4387337317719808</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06133239632744029</v>
+        <v>0.06133238330019939</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4524946893118886</v>
+        <v>0.4524945995726086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05558363496126877</v>
+        <v>0.05558362671406794</v>
       </c>
     </row>
     <row r="6">
@@ -1905,10 +1905,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4680445578585943</v>
+        <v>0.4680444783309854</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05183529301687991</v>
+        <v>0.05183528643835852</v>
       </c>
     </row>
     <row r="7">
@@ -1919,10 +1919,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.48631362979744</v>
+        <v>0.486313564403404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04964964333390627</v>
+        <v>0.04964963657468196</v>
       </c>
     </row>
     <row r="8">
@@ -1933,10 +1933,10 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5080697299075965</v>
+        <v>0.5080696802510656</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04858134954259524</v>
+        <v>0.04858134197896419</v>
       </c>
     </row>
     <row r="9">
@@ -1947,10 +1947,10 @@
         <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5338430855002179</v>
+        <v>0.5338430509414813</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04825197530882941</v>
+        <v>0.04825196712383344</v>
       </c>
     </row>
     <row r="10">
@@ -1961,10 +1961,10 @@
         <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5638658455187</v>
+        <v>0.5638658234336817</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04840266277864701</v>
+        <v>0.04840265449236713</v>
       </c>
     </row>
     <row r="11">
@@ -1975,10 +1975,10 @@
         <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5980317591626585</v>
+        <v>0.5980317453585586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04894044206399228</v>
+        <v>0.048940434223878</v>
       </c>
     </row>
     <row r="12">
@@ -1989,10 +1989,10 @@
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6358798385685679</v>
+        <v>0.635879827813805</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05000550718345043</v>
+        <v>0.05000550012904883</v>
       </c>
     </row>
     <row r="13">
@@ -2003,10 +2003,10 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6766038621987565</v>
+        <v>0.6766038488157182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05206035039348391</v>
+        <v>0.05206034377967769</v>
       </c>
     </row>
     <row r="14">
@@ -2017,10 +2017,10 @@
         <v>170</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7190874204391733</v>
+        <v>0.7190873989047152</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05593719749705129</v>
+        <v>0.05593718932155783</v>
       </c>
     </row>
     <row r="15">
@@ -2031,10 +2031,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>0.761962070947492</v>
+        <v>0.7619620364473276</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0627191427814756</v>
+        <v>0.0627191282455086</v>
       </c>
     </row>
     <row r="16">
@@ -2045,10 +2045,10 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8036842639226652</v>
+        <v>0.803684212813002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07341594347758101</v>
+        <v>0.07341591464153081</v>
       </c>
     </row>
     <row r="17">
@@ -2059,10 +2059,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>0.842625196475759</v>
+        <v>0.8426251266159938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08864591262523083</v>
+        <v>0.0886458592309614</v>
       </c>
     </row>
     <row r="18">
@@ -2073,10 +2073,10 @@
         <v>210</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8771667956229932</v>
+        <v>0.8771667065575306</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1085619098847351</v>
+        <v>0.1085618205297201</v>
       </c>
     </row>
     <row r="19">
@@ -2087,10 +2087,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9057966876410632</v>
+        <v>0.9057965806233855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132969019575925</v>
+        <v>0.1329688825462322</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9271952993095977</v>
+        <v>0.927195177176496</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1614556434078256</v>
+        <v>0.1614554472125327</v>
       </c>
     </row>
     <row r="21">
@@ -2115,10 +2115,10 @@
         <v>240</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9403091020040087</v>
+        <v>0.9403089689211037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1934693399804146</v>
+        <v>0.1934690738058038</v>
       </c>
     </row>
     <row r="22">
@@ -2129,10 +2129,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9444053456284404</v>
+        <v>0.9444052067382317</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2283548716948176</v>
+        <v>0.2283545258552434</v>
       </c>
     </row>
     <row r="23">
@@ -2143,10 +2143,10 @@
         <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9391052880667732</v>
+        <v>0.9391051490765285</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2653806289514102</v>
+        <v>0.2653801953148295</v>
       </c>
     </row>
     <row r="24">
@@ -2157,10 +2157,10 @@
         <v>270</v>
       </c>
       <c r="C24" t="n">
-        <v>0.924394736461945</v>
+        <v>0.9243946032112483</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3037659789144085</v>
+        <v>0.3037654512580023</v>
       </c>
     </row>
     <row r="25">
@@ -2171,10 +2171,10 @@
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9006125051632112</v>
+        <v>0.9006123832090708</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3427122796743933</v>
+        <v>0.3427116539344108</v>
       </c>
     </row>
     <row r="26">
@@ -2185,10 +2185,10 @@
         <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8684190026532794</v>
+        <v>0.8684188969056129</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3814360925844995</v>
+        <v>0.3814353669800632</v>
       </c>
     </row>
     <row r="27">
@@ -2199,10 +2199,10 @@
         <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8287484576212462</v>
+        <v>0.8287483720539051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4192018769516848</v>
+        <v>0.419201051977251</v>
       </c>
     </row>
     <row r="28">
@@ -2213,10 +2213,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>0.782749195033369</v>
+        <v>0.7827491324867063</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4553514486724163</v>
+        <v>0.4553505269662148</v>
       </c>
     </row>
     <row r="29">
@@ -2227,10 +2227,10 @@
         <v>320</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7317168351653986</v>
+        <v>0.7317167972467389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4893279763704089</v>
+        <v>0.4893269624760627</v>
       </c>
     </row>
     <row r="30">
@@ -2241,10 +2241,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6770253164080281</v>
+        <v>0.6770253034874224</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5206929715428201</v>
+        <v>0.5206918715883612</v>
       </c>
     </row>
     <row r="31">
@@ -2255,10 +2255,10 @@
         <v>340</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6200602809164613</v>
+        <v>0.620060292207306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5491354675970078</v>
+        <v>0.5491342889195922</v>
       </c>
     </row>
   </sheetData>
